--- a/risikovurderinger/Risikovurdering-Byraadsarkivet.xlsx
+++ b/risikovurderinger/Risikovurdering-Byraadsarkivet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azkb075\github\persondata\risikovurderinger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6265BE1C-196F-410A-99DE-28401D3E5F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87225073-8CC3-4547-A910-421AE4E6BFFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEJLEDNING" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="564">
   <si>
     <t>Spørgsmål</t>
   </si>
@@ -2112,6 +2112,9 @@
   </si>
   <si>
     <t>​At give borgere, virksomheder og medarbejdere webadgang til åbne mødereferater, sager og bilag fra både byrådet, magistraten og de politiske udvalg.</t>
+  </si>
+  <si>
+    <t>Ingen</t>
   </si>
 </sst>
 </file>
@@ -2428,7 +2431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2733,12 +2736,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2757,12 +2754,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20198,63 +20202,63 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="154.54296875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="154.5703125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="102"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="64" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="64" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>450</v>
       </c>
@@ -20272,20 +20276,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414EDFAA-A4AC-488F-89E2-85B1D90FA2E0}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="84"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
         <v>436</v>
       </c>
@@ -20298,161 +20302,167 @@
       <c r="D7" s="85"/>
       <c r="E7" s="85"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="118">
+        <v>45049</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>563</v>
+      </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
       <c r="D27" s="44"/>
       <c r="E27" s="44"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
       <c r="E29" s="44"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -20470,25 +20480,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="80.7265625" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>228</v>
       </c>
       <c r="B1" s="102"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -20497,7 +20507,7 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -20506,7 +20516,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -20515,7 +20525,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>109</v>
       </c>
@@ -20524,7 +20534,7 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>110</v>
       </c>
@@ -20533,7 +20543,7 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>111</v>
       </c>
@@ -20542,7 +20552,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -20551,7 +20561,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -20560,7 +20570,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>430</v>
       </c>
@@ -20569,7 +20579,7 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>103</v>
       </c>
@@ -20578,7 +20588,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -20587,7 +20597,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>96</v>
       </c>
@@ -20636,14 +20646,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="48" customWidth="1"/>
-    <col min="2" max="2" width="48.26953125" style="41" customWidth="1"/>
-    <col min="3" max="7" width="9.1796875" style="40"/>
+    <col min="1" max="1" width="13.140625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="41" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="104" t="s">
         <v>236</v>
       </c>
@@ -20654,7 +20664,7 @@
       <c r="F1" s="106"/>
       <c r="G1" s="106"/>
     </row>
-    <row r="2" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>237</v>
       </c>
@@ -20665,7 +20675,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>238</v>
       </c>
@@ -20675,7 +20685,7 @@
       <c r="F3" s="38"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -20683,7 +20693,7 @@
       <c r="F4" s="38"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -20691,7 +20701,7 @@
       <c r="F5" s="38"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
@@ -20700,7 +20710,7 @@
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>259</v>
       </c>
@@ -20710,7 +20720,7 @@
       <c r="F7" s="38"/>
       <c r="G7" s="39"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
@@ -20718,7 +20728,7 @@
       <c r="F8" s="38"/>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
@@ -20726,7 +20736,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="37"/>
       <c r="C10" s="38"/>
@@ -20735,7 +20745,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>260</v>
       </c>
@@ -20748,7 +20758,7 @@
       <c r="F11" s="38"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="37"/>
       <c r="C12" s="38"/>
@@ -20757,7 +20767,7 @@
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>261</v>
       </c>
@@ -20770,7 +20780,7 @@
       <c r="F13" s="38"/>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="37"/>
       <c r="C14" s="38"/>
@@ -20779,7 +20789,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>262</v>
       </c>
@@ -20792,7 +20802,7 @@
       <c r="F15" s="38"/>
       <c r="G15" s="39"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="37"/>
       <c r="C16" s="38"/>
@@ -20801,7 +20811,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>263</v>
       </c>
@@ -20814,7 +20824,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="39"/>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="37"/>
       <c r="C18" s="38"/>
@@ -20823,7 +20833,7 @@
       <c r="F18" s="38"/>
       <c r="G18" s="39"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>264</v>
       </c>
@@ -20836,7 +20846,7 @@
       <c r="F19" s="38"/>
       <c r="G19" s="39"/>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="46" t="s">
         <v>294</v>
@@ -20847,7 +20857,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="39"/>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="46" t="s">
         <v>295</v>
@@ -20858,7 +20868,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="39"/>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="37"/>
       <c r="C22" s="38"/>
@@ -20867,7 +20877,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="39"/>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>239</v>
       </c>
@@ -20880,7 +20890,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="39"/>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="43" t="s">
         <v>297</v>
@@ -20891,7 +20901,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="43"/>
       <c r="C25" s="38"/>
@@ -20900,7 +20910,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="39"/>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>265</v>
       </c>
@@ -20913,7 +20923,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="39"/>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="43" t="s">
         <v>298</v>
@@ -20924,7 +20934,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="39"/>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="43" t="s">
         <v>299</v>
@@ -20935,7 +20945,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="43" t="s">
         <v>300</v>
@@ -20946,7 +20956,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="43"/>
       <c r="C30" s="38"/>
@@ -20955,7 +20965,7 @@
       <c r="F30" s="38"/>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>266</v>
       </c>
@@ -20968,7 +20978,7 @@
       <c r="F31" s="38"/>
       <c r="G31" s="39"/>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="43"/>
       <c r="C32" s="38"/>
@@ -20977,7 +20987,7 @@
       <c r="F32" s="38"/>
       <c r="G32" s="39"/>
     </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>267</v>
       </c>
@@ -20990,7 +21000,7 @@
       <c r="F33" s="38"/>
       <c r="G33" s="39"/>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="43"/>
       <c r="C34" s="38"/>
@@ -20999,7 +21009,7 @@
       <c r="F34" s="38"/>
       <c r="G34" s="39"/>
     </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>253</v>
       </c>
@@ -21012,7 +21022,7 @@
       <c r="F35" s="38"/>
       <c r="G35" s="39"/>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="43"/>
       <c r="C36" s="38"/>
@@ -21021,7 +21031,7 @@
       <c r="F36" s="38"/>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>254</v>
       </c>
@@ -21034,7 +21044,7 @@
       <c r="F37" s="38"/>
       <c r="G37" s="39"/>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="43" t="s">
         <v>277</v>
@@ -21045,7 +21055,7 @@
       <c r="F38" s="38"/>
       <c r="G38" s="39"/>
     </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="43"/>
       <c r="C39" s="38"/>
@@ -21054,7 +21064,7 @@
       <c r="F39" s="38"/>
       <c r="G39" s="39"/>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>255</v>
       </c>
@@ -21067,7 +21077,7 @@
       <c r="F40" s="38"/>
       <c r="G40" s="39"/>
     </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="43" t="s">
         <v>269</v>
@@ -21078,7 +21088,7 @@
       <c r="F41" s="38"/>
       <c r="G41" s="39"/>
     </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="43" t="s">
         <v>303</v>
@@ -21089,7 +21099,7 @@
       <c r="F42" s="38"/>
       <c r="G42" s="39"/>
     </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="43"/>
       <c r="C43" s="38"/>
@@ -21098,7 +21108,7 @@
       <c r="F43" s="38"/>
       <c r="G43" s="39"/>
     </row>
-    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>256</v>
       </c>
@@ -21111,7 +21121,7 @@
       <c r="F44" s="38"/>
       <c r="G44" s="39"/>
     </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="43" t="s">
         <v>305</v>
@@ -21122,7 +21132,7 @@
       <c r="F45" s="38"/>
       <c r="G45" s="39"/>
     </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="43"/>
       <c r="C46" s="38"/>
@@ -21131,7 +21141,7 @@
       <c r="F46" s="38"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>257</v>
       </c>
@@ -21144,7 +21154,7 @@
       <c r="F47" s="38"/>
       <c r="G47" s="39"/>
     </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="43" t="s">
         <v>307</v>
@@ -21155,7 +21165,7 @@
       <c r="F48" s="38"/>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="43"/>
       <c r="C49" s="38"/>
@@ -21164,7 +21174,7 @@
       <c r="F49" s="38"/>
       <c r="G49" s="39"/>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>258</v>
       </c>
@@ -21177,7 +21187,7 @@
       <c r="F50" s="38"/>
       <c r="G50" s="39"/>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="43" t="s">
         <v>309</v>
@@ -21188,7 +21198,7 @@
       <c r="F51" s="38"/>
       <c r="G51" s="39"/>
     </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="43"/>
       <c r="C52" s="38"/>
@@ -21197,7 +21207,7 @@
       <c r="F52" s="38"/>
       <c r="G52" s="39"/>
     </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>249</v>
       </c>
@@ -21210,7 +21220,7 @@
       <c r="F53" s="38"/>
       <c r="G53" s="39"/>
     </row>
-    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="43"/>
       <c r="C54" s="38"/>
@@ -21219,7 +21229,7 @@
       <c r="F54" s="38"/>
       <c r="G54" s="39"/>
     </row>
-    <row r="55" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>250</v>
       </c>
@@ -21232,7 +21242,7 @@
       <c r="F55" s="38"/>
       <c r="G55" s="39"/>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="43" t="s">
         <v>310</v>
@@ -21243,7 +21253,7 @@
       <c r="F56" s="38"/>
       <c r="G56" s="39"/>
     </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="43"/>
       <c r="C57" s="38"/>
@@ -21252,7 +21262,7 @@
       <c r="F57" s="38"/>
       <c r="G57" s="39"/>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>251</v>
       </c>
@@ -21265,7 +21275,7 @@
       <c r="F58" s="38"/>
       <c r="G58" s="39"/>
     </row>
-    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="43"/>
       <c r="C59" s="38"/>
@@ -21274,7 +21284,7 @@
       <c r="F59" s="38"/>
       <c r="G59" s="39"/>
     </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>247</v>
       </c>
@@ -21287,7 +21297,7 @@
       <c r="F60" s="38"/>
       <c r="G60" s="39"/>
     </row>
-    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="43"/>
       <c r="C61" s="38"/>
@@ -21296,7 +21306,7 @@
       <c r="F61" s="38"/>
       <c r="G61" s="39"/>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>244</v>
       </c>
@@ -21309,7 +21319,7 @@
       <c r="F62" s="38"/>
       <c r="G62" s="39"/>
     </row>
-    <row r="63" spans="1:7" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
       <c r="B63" s="43" t="s">
         <v>246</v>
@@ -21320,7 +21330,7 @@
       <c r="F63" s="38"/>
       <c r="G63" s="39"/>
     </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="43" t="s">
         <v>311</v>
@@ -21331,7 +21341,7 @@
       <c r="F64" s="38"/>
       <c r="G64" s="39"/>
     </row>
-    <row r="65" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
       <c r="B65" s="43"/>
       <c r="C65" s="42"/>
@@ -21340,7 +21350,7 @@
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
     </row>
-    <row r="66" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
         <v>243</v>
       </c>
@@ -21353,7 +21363,7 @@
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
     </row>
-    <row r="67" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
       <c r="B67" s="43" t="s">
         <v>241</v>
@@ -21364,7 +21374,7 @@
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
     </row>
-    <row r="68" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
       <c r="B68" s="43"/>
       <c r="C68" s="42"/>
@@ -21373,7 +21383,7 @@
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
     </row>
-    <row r="69" spans="1:7" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
         <v>274</v>
       </c>
@@ -21386,7 +21396,7 @@
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
     </row>
-    <row r="70" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
       <c r="B70" s="43"/>
       <c r="C70" s="42"/>
@@ -21395,7 +21405,7 @@
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
     </row>
-    <row r="71" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
         <v>275</v>
       </c>
@@ -21408,7 +21418,7 @@
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
     </row>
-    <row r="72" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="43" t="s">
         <v>279</v>
@@ -21419,7 +21429,7 @@
       <c r="F72" s="42"/>
       <c r="G72" s="42"/>
     </row>
-    <row r="73" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="43" t="s">
         <v>281</v>
@@ -21430,7 +21440,7 @@
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
     </row>
-    <row r="74" spans="1:7" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
       <c r="B74" s="43" t="s">
         <v>282</v>
@@ -21441,7 +21451,7 @@
       <c r="F74" s="42"/>
       <c r="G74" s="42"/>
     </row>
-    <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
       <c r="B75" s="43" t="s">
         <v>283</v>
@@ -21452,7 +21462,7 @@
       <c r="F75" s="42"/>
       <c r="G75" s="42"/>
     </row>
-    <row r="76" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
       <c r="B76" s="43"/>
       <c r="C76" s="42"/>
@@ -21461,7 +21471,7 @@
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
     </row>
-    <row r="77" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
         <v>276</v>
       </c>
@@ -21474,7 +21484,7 @@
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
     </row>
-    <row r="78" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
       <c r="B78" s="43"/>
       <c r="C78" s="42"/>
@@ -21483,7 +21493,7 @@
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
     </row>
-    <row r="79" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
       <c r="B79" s="43"/>
       <c r="C79" s="42"/>
@@ -21492,7 +21502,7 @@
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
     </row>
-    <row r="80" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
       <c r="B80" s="43"/>
       <c r="C80" s="42"/>
@@ -21501,7 +21511,7 @@
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
     </row>
-    <row r="81" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
       <c r="B81" s="43"/>
       <c r="C81" s="42"/>
@@ -21510,7 +21520,7 @@
       <c r="F81" s="42"/>
       <c r="G81" s="42"/>
     </row>
-    <row r="82" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
       <c r="B82" s="43"/>
       <c r="C82" s="42"/>
@@ -21519,7 +21529,7 @@
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
     </row>
-    <row r="83" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
       <c r="B83" s="43"/>
       <c r="C83" s="42"/>
@@ -21528,7 +21538,7 @@
       <c r="F83" s="42"/>
       <c r="G83" s="42"/>
     </row>
-    <row r="84" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
       <c r="B84" s="43"/>
       <c r="C84" s="42"/>
@@ -21537,7 +21547,7 @@
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
     </row>
-    <row r="85" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
       <c r="B85" s="43"/>
       <c r="C85" s="42"/>
@@ -21546,7 +21556,7 @@
       <c r="F85" s="42"/>
       <c r="G85" s="42"/>
     </row>
-    <row r="86" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
       <c r="B86" s="43"/>
       <c r="C86" s="42"/>
@@ -21555,7 +21565,7 @@
       <c r="F86" s="42"/>
       <c r="G86" s="42"/>
     </row>
-    <row r="87" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
       <c r="B87" s="43"/>
       <c r="C87" s="42"/>
@@ -21564,7 +21574,7 @@
       <c r="F87" s="42"/>
       <c r="G87" s="42"/>
     </row>
-    <row r="88" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
       <c r="B88" s="43"/>
       <c r="C88" s="42"/>
@@ -21573,7 +21583,7 @@
       <c r="F88" s="42"/>
       <c r="G88" s="42"/>
     </row>
-    <row r="89" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
       <c r="B89" s="43"/>
       <c r="C89" s="42"/>
@@ -21582,7 +21592,7 @@
       <c r="F89" s="42"/>
       <c r="G89" s="42"/>
     </row>
-    <row r="90" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
       <c r="B90" s="43"/>
       <c r="C90" s="42"/>
@@ -21591,7 +21601,7 @@
       <c r="F90" s="42"/>
       <c r="G90" s="42"/>
     </row>
-    <row r="91" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
       <c r="B91" s="43"/>
       <c r="C91" s="42"/>
@@ -21600,7 +21610,7 @@
       <c r="F91" s="42"/>
       <c r="G91" s="42"/>
     </row>
-    <row r="92" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
       <c r="B92" s="43"/>
       <c r="C92" s="42"/>
@@ -21609,7 +21619,7 @@
       <c r="F92" s="42"/>
       <c r="G92" s="42"/>
     </row>
-    <row r="93" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
       <c r="B93" s="43"/>
       <c r="C93" s="42"/>
@@ -21618,7 +21628,7 @@
       <c r="F93" s="42"/>
       <c r="G93" s="42"/>
     </row>
-    <row r="94" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
       <c r="B94" s="43"/>
       <c r="C94" s="42"/>
@@ -21627,7 +21637,7 @@
       <c r="F94" s="42"/>
       <c r="G94" s="42"/>
     </row>
-    <row r="95" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
       <c r="B95" s="43"/>
       <c r="C95" s="42"/>
@@ -21636,7 +21646,7 @@
       <c r="F95" s="42"/>
       <c r="G95" s="42"/>
     </row>
-    <row r="96" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
       <c r="B96" s="43"/>
       <c r="C96" s="42"/>
@@ -21645,7 +21655,7 @@
       <c r="F96" s="42"/>
       <c r="G96" s="42"/>
     </row>
-    <row r="97" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
       <c r="B97" s="43"/>
       <c r="C97" s="42"/>
@@ -21654,7 +21664,7 @@
       <c r="F97" s="42"/>
       <c r="G97" s="42"/>
     </row>
-    <row r="98" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
       <c r="B98" s="43"/>
       <c r="C98" s="42"/>
@@ -21663,7 +21673,7 @@
       <c r="F98" s="42"/>
       <c r="G98" s="42"/>
     </row>
-    <row r="99" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="43"/>
       <c r="C99" s="42"/>
@@ -21672,7 +21682,7 @@
       <c r="F99" s="42"/>
       <c r="G99" s="42"/>
     </row>
-    <row r="100" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
       <c r="B100" s="43"/>
       <c r="C100" s="42"/>
@@ -21698,26 +21708,26 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.453125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="50" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="39.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="23" style="2" customWidth="1"/>
-    <col min="9" max="9" width="64.1796875" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="64.140625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="103" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:78" s="4" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:78" s="4" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
@@ -21815,18 +21825,18 @@
       <c r="BY2" s="16"/>
       <c r="BZ2" s="16"/>
     </row>
-    <row r="3" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="110" t="s">
+    <row r="3" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="112"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -21897,7 +21907,7 @@
       <c r="BY3" s="15"/>
       <c r="BZ3" s="15"/>
     </row>
-    <row r="4" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>313</v>
       </c>
@@ -21992,7 +22002,7 @@
       <c r="BY4" s="14"/>
       <c r="BZ4" s="14"/>
     </row>
-    <row r="5" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>290</v>
       </c>
@@ -22083,7 +22093,7 @@
       <c r="BY5" s="15"/>
       <c r="BZ5" s="15"/>
     </row>
-    <row r="6" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>291</v>
       </c>
@@ -22175,7 +22185,7 @@
       <c r="BY6" s="15"/>
       <c r="BZ6" s="15"/>
     </row>
-    <row r="7" spans="1:78" s="54" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" s="54" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>315</v>
       </c>
@@ -22259,7 +22269,7 @@
       <c r="BY7" s="60"/>
       <c r="BZ7" s="60"/>
     </row>
-    <row r="8" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>315</v>
       </c>
@@ -22351,18 +22361,18 @@
       <c r="BY8" s="17"/>
       <c r="BZ8" s="17"/>
     </row>
-    <row r="9" spans="1:78" s="61" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="113" t="s">
+    <row r="9" spans="1:78" s="61" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -22433,7 +22443,7 @@
       <c r="BY9" s="62"/>
       <c r="BZ9" s="62"/>
     </row>
-    <row r="10" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>286</v>
       </c>
@@ -22524,7 +22534,7 @@
       <c r="BY10" s="14"/>
       <c r="BZ10" s="14"/>
     </row>
-    <row r="11" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>287</v>
       </c>
@@ -22616,7 +22626,7 @@
       <c r="BY11" s="15"/>
       <c r="BZ11" s="15"/>
     </row>
-    <row r="12" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>288</v>
       </c>
@@ -22708,7 +22718,7 @@
       <c r="BY12" s="15"/>
       <c r="BZ12" s="15"/>
     </row>
-    <row r="13" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>315</v>
       </c>
@@ -22800,7 +22810,7 @@
       <c r="BY13" s="17"/>
       <c r="BZ13" s="17"/>
     </row>
-    <row r="14" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>315</v>
       </c>
@@ -22892,7 +22902,7 @@
       <c r="BY14" s="14"/>
       <c r="BZ14" s="14"/>
     </row>
-    <row r="15" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="107" t="s">
         <v>123</v>
       </c>
@@ -22984,7 +22994,7 @@
       <c r="BY15" s="15"/>
       <c r="BZ15" s="15"/>
     </row>
-    <row r="16" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="107"/>
       <c r="B16" s="2" t="s">
         <v>18</v>
@@ -23074,7 +23084,7 @@
       <c r="BY16" s="15"/>
       <c r="BZ16" s="15"/>
     </row>
-    <row r="17" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="107"/>
       <c r="B17" s="9" t="s">
         <v>19</v>
@@ -23164,7 +23174,7 @@
       <c r="BY17" s="17"/>
       <c r="BZ17" s="17"/>
     </row>
-    <row r="18" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="107"/>
       <c r="B18" s="6" t="s">
         <v>20</v>
@@ -23254,7 +23264,7 @@
       <c r="BY18" s="14"/>
       <c r="BZ18" s="14"/>
     </row>
-    <row r="19" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="107" t="s">
         <v>124</v>
       </c>
@@ -23346,7 +23356,7 @@
       <c r="BY19" s="15"/>
       <c r="BZ19" s="15"/>
     </row>
-    <row r="20" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="107"/>
       <c r="B20" s="2" t="s">
         <v>22</v>
@@ -23436,7 +23446,7 @@
       <c r="BY20" s="15"/>
       <c r="BZ20" s="15"/>
     </row>
-    <row r="21" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="107"/>
       <c r="B21" s="9" t="s">
         <v>23</v>
@@ -23526,7 +23536,7 @@
       <c r="BY21" s="17"/>
       <c r="BZ21" s="17"/>
     </row>
-    <row r="22" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="107"/>
       <c r="B22" s="6" t="s">
         <v>24</v>
@@ -23616,7 +23626,7 @@
       <c r="BY22" s="14"/>
       <c r="BZ22" s="14"/>
     </row>
-    <row r="23" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="107" t="s">
         <v>125</v>
       </c>
@@ -23708,7 +23718,7 @@
       <c r="BY23" s="15"/>
       <c r="BZ23" s="15"/>
     </row>
-    <row r="24" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="107"/>
       <c r="B24" s="2" t="s">
         <v>26</v>
@@ -23798,7 +23808,7 @@
       <c r="BY24" s="15"/>
       <c r="BZ24" s="15"/>
     </row>
-    <row r="25" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="107"/>
       <c r="B25" s="9" t="s">
         <v>27</v>
@@ -23888,7 +23898,7 @@
       <c r="BY25" s="17"/>
       <c r="BZ25" s="17"/>
     </row>
-    <row r="26" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="107"/>
       <c r="B26" s="6" t="s">
         <v>28</v>
@@ -23978,7 +23988,7 @@
       <c r="BY26" s="14"/>
       <c r="BZ26" s="14"/>
     </row>
-    <row r="27" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="107" t="s">
         <v>126</v>
       </c>
@@ -24070,7 +24080,7 @@
       <c r="BY27" s="15"/>
       <c r="BZ27" s="15"/>
     </row>
-    <row r="28" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="107"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
@@ -24160,7 +24170,7 @@
       <c r="BY28" s="15"/>
       <c r="BZ28" s="15"/>
     </row>
-    <row r="29" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="107"/>
       <c r="B29" s="9" t="s">
         <v>31</v>
@@ -24250,7 +24260,7 @@
       <c r="BY29" s="17"/>
       <c r="BZ29" s="17"/>
     </row>
-    <row r="30" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="107"/>
       <c r="B30" s="6" t="s">
         <v>32</v>
@@ -24340,7 +24350,7 @@
       <c r="BY30" s="14"/>
       <c r="BZ30" s="14"/>
     </row>
-    <row r="31" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="107" t="s">
         <v>127</v>
       </c>
@@ -24432,7 +24442,7 @@
       <c r="BY31" s="15"/>
       <c r="BZ31" s="15"/>
     </row>
-    <row r="32" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="107"/>
       <c r="B32" s="2" t="s">
         <v>34</v>
@@ -24522,7 +24532,7 @@
       <c r="BY32" s="15"/>
       <c r="BZ32" s="15"/>
     </row>
-    <row r="33" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="107"/>
       <c r="B33" s="9" t="s">
         <v>35</v>
@@ -24612,7 +24622,7 @@
       <c r="BY33" s="17"/>
       <c r="BZ33" s="17"/>
     </row>
-    <row r="34" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="107"/>
       <c r="B34" s="6" t="s">
         <v>36</v>
@@ -24702,7 +24712,7 @@
       <c r="BY34" s="14"/>
       <c r="BZ34" s="14"/>
     </row>
-    <row r="35" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="107" t="s">
         <v>128</v>
       </c>
@@ -24794,7 +24804,7 @@
       <c r="BY35" s="15"/>
       <c r="BZ35" s="15"/>
     </row>
-    <row r="36" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="107"/>
       <c r="B36" s="2" t="s">
         <v>38</v>
@@ -24884,7 +24894,7 @@
       <c r="BY36" s="15"/>
       <c r="BZ36" s="15"/>
     </row>
-    <row r="37" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="107"/>
       <c r="B37" s="9" t="s">
         <v>39</v>
@@ -24974,7 +24984,7 @@
       <c r="BY37" s="17"/>
       <c r="BZ37" s="17"/>
     </row>
-    <row r="38" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="107"/>
       <c r="B38" s="6" t="s">
         <v>40</v>
@@ -25064,7 +25074,7 @@
       <c r="BY38" s="14"/>
       <c r="BZ38" s="14"/>
     </row>
-    <row r="39" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="107" t="s">
         <v>129</v>
       </c>
@@ -25156,8 +25166,8 @@
       <c r="BY39" s="15"/>
       <c r="BZ39" s="15"/>
     </row>
-    <row r="40" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="108"/>
+    <row r="40" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="114"/>
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
@@ -25246,8 +25256,8 @@
       <c r="BY40" s="15"/>
       <c r="BZ40" s="15"/>
     </row>
-    <row r="41" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="108"/>
+    <row r="41" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="114"/>
       <c r="B41" s="9" t="s">
         <v>43</v>
       </c>
@@ -25336,8 +25346,8 @@
       <c r="BY41" s="17"/>
       <c r="BZ41" s="17"/>
     </row>
-    <row r="42" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="109"/>
+    <row r="42" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="115"/>
       <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
@@ -25426,7 +25436,7 @@
       <c r="BY42" s="14"/>
       <c r="BZ42" s="14"/>
     </row>
-    <row r="43" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="107" t="s">
         <v>130</v>
       </c>
@@ -25518,7 +25528,7 @@
       <c r="BY43" s="15"/>
       <c r="BZ43" s="15"/>
     </row>
-    <row r="44" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="107"/>
       <c r="B44" s="2" t="s">
         <v>46</v>
@@ -25608,7 +25618,7 @@
       <c r="BY44" s="15"/>
       <c r="BZ44" s="15"/>
     </row>
-    <row r="45" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="107"/>
       <c r="B45" s="9" t="s">
         <v>47</v>
@@ -25698,7 +25708,7 @@
       <c r="BY45" s="17"/>
       <c r="BZ45" s="17"/>
     </row>
-    <row r="46" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="107"/>
       <c r="B46" s="6" t="s">
         <v>48</v>
@@ -25788,7 +25798,7 @@
       <c r="BY46" s="14"/>
       <c r="BZ46" s="14"/>
     </row>
-    <row r="47" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="107" t="s">
         <v>131</v>
       </c>
@@ -25880,7 +25890,7 @@
       <c r="BY47" s="15"/>
       <c r="BZ47" s="15"/>
     </row>
-    <row r="48" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="107"/>
       <c r="B48" s="2" t="s">
         <v>50</v>
@@ -25970,7 +25980,7 @@
       <c r="BY48" s="15"/>
       <c r="BZ48" s="15"/>
     </row>
-    <row r="49" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="107"/>
       <c r="B49" s="9" t="s">
         <v>51</v>
@@ -26060,7 +26070,7 @@
       <c r="BY49" s="17"/>
       <c r="BZ49" s="17"/>
     </row>
-    <row r="50" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="107"/>
       <c r="B50" s="6" t="s">
         <v>52</v>
@@ -26150,7 +26160,7 @@
       <c r="BY50" s="14"/>
       <c r="BZ50" s="14"/>
     </row>
-    <row r="51" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="107" t="s">
         <v>132</v>
       </c>
@@ -26242,7 +26252,7 @@
       <c r="BY51" s="15"/>
       <c r="BZ51" s="15"/>
     </row>
-    <row r="52" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="107"/>
       <c r="B52" s="2" t="s">
         <v>54</v>
@@ -26332,7 +26342,7 @@
       <c r="BY52" s="15"/>
       <c r="BZ52" s="15"/>
     </row>
-    <row r="53" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="107"/>
       <c r="B53" s="9" t="s">
         <v>55</v>
@@ -26422,7 +26432,7 @@
       <c r="BY53" s="17"/>
       <c r="BZ53" s="17"/>
     </row>
-    <row r="54" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="107"/>
       <c r="B54" s="6" t="s">
         <v>56</v>
@@ -26512,7 +26522,7 @@
       <c r="BY54" s="14"/>
       <c r="BZ54" s="14"/>
     </row>
-    <row r="55" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="107" t="s">
         <v>133</v>
       </c>
@@ -26604,7 +26614,7 @@
       <c r="BY55" s="15"/>
       <c r="BZ55" s="15"/>
     </row>
-    <row r="56" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="107"/>
       <c r="B56" s="2" t="s">
         <v>58</v>
@@ -26694,7 +26704,7 @@
       <c r="BY56" s="15"/>
       <c r="BZ56" s="15"/>
     </row>
-    <row r="57" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="107"/>
       <c r="B57" s="9" t="s">
         <v>59</v>
@@ -26784,7 +26794,7 @@
       <c r="BY57" s="17"/>
       <c r="BZ57" s="17"/>
     </row>
-    <row r="58" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="107"/>
       <c r="B58" s="6" t="s">
         <v>60</v>
@@ -26874,7 +26884,7 @@
       <c r="BY58" s="14"/>
       <c r="BZ58" s="14"/>
     </row>
-    <row r="59" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="107" t="s">
         <v>134</v>
       </c>
@@ -26966,7 +26976,7 @@
       <c r="BY59" s="15"/>
       <c r="BZ59" s="15"/>
     </row>
-    <row r="60" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="107"/>
       <c r="B60" s="2" t="s">
         <v>62</v>
@@ -27056,7 +27066,7 @@
       <c r="BY60" s="15"/>
       <c r="BZ60" s="15"/>
     </row>
-    <row r="61" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="107"/>
       <c r="B61" s="9" t="s">
         <v>63</v>
@@ -27146,7 +27156,7 @@
       <c r="BY61" s="17"/>
       <c r="BZ61" s="17"/>
     </row>
-    <row r="62" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="107"/>
       <c r="B62" s="6" t="s">
         <v>64</v>
@@ -27236,7 +27246,7 @@
       <c r="BY62" s="14"/>
       <c r="BZ62" s="14"/>
     </row>
-    <row r="63" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="107" t="s">
         <v>135</v>
       </c>
@@ -27328,7 +27338,7 @@
       <c r="BY63" s="15"/>
       <c r="BZ63" s="15"/>
     </row>
-    <row r="64" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="107"/>
       <c r="B64" s="2" t="s">
         <v>66</v>
@@ -27418,7 +27428,7 @@
       <c r="BY64" s="15"/>
       <c r="BZ64" s="15"/>
     </row>
-    <row r="65" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="107"/>
       <c r="B65" s="9" t="s">
         <v>67</v>
@@ -27508,7 +27518,7 @@
       <c r="BY65" s="17"/>
       <c r="BZ65" s="17"/>
     </row>
-    <row r="66" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="107"/>
       <c r="B66" s="6" t="s">
         <v>68</v>
@@ -27598,7 +27608,7 @@
       <c r="BY66" s="14"/>
       <c r="BZ66" s="14"/>
     </row>
-    <row r="67" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="107" t="s">
         <v>136</v>
       </c>
@@ -27690,7 +27700,7 @@
       <c r="BY67" s="15"/>
       <c r="BZ67" s="15"/>
     </row>
-    <row r="68" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="107"/>
       <c r="B68" s="2" t="s">
         <v>70</v>
@@ -27780,7 +27790,7 @@
       <c r="BY68" s="15"/>
       <c r="BZ68" s="15"/>
     </row>
-    <row r="69" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="107"/>
       <c r="B69" s="9" t="s">
         <v>71</v>
@@ -27870,7 +27880,7 @@
       <c r="BY69" s="17"/>
       <c r="BZ69" s="17"/>
     </row>
-    <row r="70" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="107"/>
       <c r="B70" s="6" t="s">
         <v>72</v>
@@ -27960,7 +27970,7 @@
       <c r="BY70" s="14"/>
       <c r="BZ70" s="14"/>
     </row>
-    <row r="71" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="107" t="s">
         <v>137</v>
       </c>
@@ -28052,7 +28062,7 @@
       <c r="BY71" s="15"/>
       <c r="BZ71" s="15"/>
     </row>
-    <row r="72" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="107"/>
       <c r="B72" s="2" t="s">
         <v>74</v>
@@ -28142,7 +28152,7 @@
       <c r="BY72" s="15"/>
       <c r="BZ72" s="15"/>
     </row>
-    <row r="73" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="107"/>
       <c r="B73" s="9" t="s">
         <v>75</v>
@@ -28232,7 +28242,7 @@
       <c r="BY73" s="17"/>
       <c r="BZ73" s="17"/>
     </row>
-    <row r="74" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="107"/>
       <c r="B74" s="6" t="s">
         <v>76</v>
@@ -28322,7 +28332,7 @@
       <c r="BY74" s="14"/>
       <c r="BZ74" s="14"/>
     </row>
-    <row r="75" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="107" t="s">
         <v>138</v>
       </c>
@@ -28414,7 +28424,7 @@
       <c r="BY75" s="15"/>
       <c r="BZ75" s="15"/>
     </row>
-    <row r="76" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="107"/>
       <c r="B76" s="2" t="s">
         <v>78</v>
@@ -28506,7 +28516,7 @@
       <c r="BY76" s="15"/>
       <c r="BZ76" s="15"/>
     </row>
-    <row r="77" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="107"/>
       <c r="B77" s="9" t="s">
         <v>79</v>
@@ -28596,7 +28606,7 @@
       <c r="BY77" s="17"/>
       <c r="BZ77" s="17"/>
     </row>
-    <row r="78" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="107"/>
       <c r="B78" s="6" t="s">
         <v>80</v>
@@ -28686,7 +28696,7 @@
       <c r="BY78" s="14"/>
       <c r="BZ78" s="14"/>
     </row>
-    <row r="79" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="107" t="s">
         <v>139</v>
       </c>
@@ -28778,7 +28788,7 @@
       <c r="BY79" s="15"/>
       <c r="BZ79" s="15"/>
     </row>
-    <row r="80" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:78" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="107"/>
       <c r="B80" s="2" t="s">
         <v>82</v>
@@ -28868,7 +28878,7 @@
       <c r="BY80" s="15"/>
       <c r="BZ80" s="15"/>
     </row>
-    <row r="81" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="107"/>
       <c r="B81" s="9" t="s">
         <v>83</v>
@@ -28958,7 +28968,7 @@
       <c r="BY81" s="17"/>
       <c r="BZ81" s="17"/>
     </row>
-    <row r="82" spans="1:78" s="6" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:78" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="107"/>
       <c r="B82" s="6" t="s">
         <v>84</v>
@@ -29048,7 +29058,7 @@
       <c r="BY82" s="14"/>
       <c r="BZ82" s="14"/>
     </row>
-    <row r="83" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="107" t="s">
         <v>140</v>
       </c>
@@ -29140,7 +29150,7 @@
       <c r="BY83" s="15"/>
       <c r="BZ83" s="15"/>
     </row>
-    <row r="84" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="107"/>
       <c r="B84" s="2" t="s">
         <v>86</v>
@@ -29230,7 +29240,7 @@
       <c r="BY84" s="15"/>
       <c r="BZ84" s="15"/>
     </row>
-    <row r="85" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="107"/>
       <c r="B85" s="9" t="s">
         <v>87</v>
@@ -29320,7 +29330,7 @@
       <c r="BY85" s="15"/>
       <c r="BZ85" s="15"/>
     </row>
-    <row r="86" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="107"/>
       <c r="B86" s="6" t="s">
         <v>145</v>
@@ -29410,7 +29420,7 @@
       <c r="BY86" s="15"/>
       <c r="BZ86" s="15"/>
     </row>
-    <row r="87" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="107" t="s">
         <v>205</v>
       </c>
@@ -29502,7 +29512,7 @@
       <c r="BY87" s="15"/>
       <c r="BZ87" s="15"/>
     </row>
-    <row r="88" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="107"/>
       <c r="B88" s="6" t="s">
         <v>147</v>
@@ -29592,7 +29602,7 @@
       <c r="BY88" s="15"/>
       <c r="BZ88" s="15"/>
     </row>
-    <row r="89" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="107"/>
       <c r="B89" s="6" t="s">
         <v>148</v>
@@ -29682,7 +29692,7 @@
       <c r="BY89" s="15"/>
       <c r="BZ89" s="15"/>
     </row>
-    <row r="90" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="107"/>
       <c r="B90" s="6" t="s">
         <v>149</v>
@@ -29772,7 +29782,7 @@
       <c r="BY90" s="15"/>
       <c r="BZ90" s="15"/>
     </row>
-    <row r="91" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="107" t="s">
         <v>206</v>
       </c>
@@ -29864,7 +29874,7 @@
       <c r="BY91" s="15"/>
       <c r="BZ91" s="15"/>
     </row>
-    <row r="92" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="107"/>
       <c r="B92" s="6" t="s">
         <v>151</v>
@@ -29954,7 +29964,7 @@
       <c r="BY92" s="15"/>
       <c r="BZ92" s="15"/>
     </row>
-    <row r="93" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="107"/>
       <c r="B93" s="6" t="s">
         <v>152</v>
@@ -30044,7 +30054,7 @@
       <c r="BY93" s="15"/>
       <c r="BZ93" s="15"/>
     </row>
-    <row r="94" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="107"/>
       <c r="B94" s="6" t="s">
         <v>153</v>
@@ -30134,7 +30144,7 @@
       <c r="BY94" s="15"/>
       <c r="BZ94" s="15"/>
     </row>
-    <row r="95" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="107" t="s">
         <v>207</v>
       </c>
@@ -30226,7 +30236,7 @@
       <c r="BY95" s="15"/>
       <c r="BZ95" s="15"/>
     </row>
-    <row r="96" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="107"/>
       <c r="B96" s="6" t="s">
         <v>155</v>
@@ -30316,7 +30326,7 @@
       <c r="BY96" s="15"/>
       <c r="BZ96" s="15"/>
     </row>
-    <row r="97" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="107"/>
       <c r="B97" s="6" t="s">
         <v>156</v>
@@ -30406,7 +30416,7 @@
       <c r="BY97" s="15"/>
       <c r="BZ97" s="15"/>
     </row>
-    <row r="98" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="107"/>
       <c r="B98" s="6" t="s">
         <v>157</v>
@@ -30496,7 +30506,7 @@
       <c r="BY98" s="15"/>
       <c r="BZ98" s="15"/>
     </row>
-    <row r="99" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="107" t="s">
         <v>208</v>
       </c>
@@ -30588,7 +30598,7 @@
       <c r="BY99" s="15"/>
       <c r="BZ99" s="15"/>
     </row>
-    <row r="100" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="107"/>
       <c r="B100" s="6" t="s">
         <v>159</v>
@@ -30678,7 +30688,7 @@
       <c r="BY100" s="15"/>
       <c r="BZ100" s="15"/>
     </row>
-    <row r="101" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="107"/>
       <c r="B101" s="6" t="s">
         <v>160</v>
@@ -30768,7 +30778,7 @@
       <c r="BY101" s="15"/>
       <c r="BZ101" s="15"/>
     </row>
-    <row r="102" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="107"/>
       <c r="B102" s="6" t="s">
         <v>161</v>
@@ -30858,7 +30868,7 @@
       <c r="BY102" s="15"/>
       <c r="BZ102" s="15"/>
     </row>
-    <row r="103" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="107" t="s">
         <v>209</v>
       </c>
@@ -30950,7 +30960,7 @@
       <c r="BY103" s="15"/>
       <c r="BZ103" s="15"/>
     </row>
-    <row r="104" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="107"/>
       <c r="B104" s="6" t="s">
         <v>163</v>
@@ -31040,7 +31050,7 @@
       <c r="BY104" s="15"/>
       <c r="BZ104" s="15"/>
     </row>
-    <row r="105" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="107"/>
       <c r="B105" s="6" t="s">
         <v>164</v>
@@ -31130,7 +31140,7 @@
       <c r="BY105" s="15"/>
       <c r="BZ105" s="15"/>
     </row>
-    <row r="106" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="107"/>
       <c r="B106" s="6" t="s">
         <v>165</v>
@@ -31220,7 +31230,7 @@
       <c r="BY106" s="15"/>
       <c r="BZ106" s="15"/>
     </row>
-    <row r="107" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="107" t="s">
         <v>210</v>
       </c>
@@ -31312,7 +31322,7 @@
       <c r="BY107" s="15"/>
       <c r="BZ107" s="15"/>
     </row>
-    <row r="108" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="107"/>
       <c r="B108" s="6" t="s">
         <v>167</v>
@@ -31402,7 +31412,7 @@
       <c r="BY108" s="15"/>
       <c r="BZ108" s="15"/>
     </row>
-    <row r="109" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="107"/>
       <c r="B109" s="6" t="s">
         <v>168</v>
@@ -31492,7 +31502,7 @@
       <c r="BY109" s="15"/>
       <c r="BZ109" s="15"/>
     </row>
-    <row r="110" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="107"/>
       <c r="B110" s="6" t="s">
         <v>169</v>
@@ -31582,7 +31592,7 @@
       <c r="BY110" s="15"/>
       <c r="BZ110" s="15"/>
     </row>
-    <row r="111" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="107" t="s">
         <v>211</v>
       </c>
@@ -31674,7 +31684,7 @@
       <c r="BY111" s="15"/>
       <c r="BZ111" s="15"/>
     </row>
-    <row r="112" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="107"/>
       <c r="B112" s="6" t="s">
         <v>171</v>
@@ -31764,7 +31774,7 @@
       <c r="BY112" s="15"/>
       <c r="BZ112" s="15"/>
     </row>
-    <row r="113" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="107"/>
       <c r="B113" s="6" t="s">
         <v>172</v>
@@ -31854,7 +31864,7 @@
       <c r="BY113" s="15"/>
       <c r="BZ113" s="15"/>
     </row>
-    <row r="114" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="107"/>
       <c r="B114" s="6" t="s">
         <v>173</v>
@@ -31944,7 +31954,7 @@
       <c r="BY114" s="15"/>
       <c r="BZ114" s="15"/>
     </row>
-    <row r="115" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="107" t="s">
         <v>212</v>
       </c>
@@ -32036,7 +32046,7 @@
       <c r="BY115" s="15"/>
       <c r="BZ115" s="15"/>
     </row>
-    <row r="116" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="107"/>
       <c r="B116" s="6" t="s">
         <v>175</v>
@@ -32126,7 +32136,7 @@
       <c r="BY116" s="15"/>
       <c r="BZ116" s="15"/>
     </row>
-    <row r="117" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="107"/>
       <c r="B117" s="6" t="s">
         <v>176</v>
@@ -32216,7 +32226,7 @@
       <c r="BY117" s="15"/>
       <c r="BZ117" s="15"/>
     </row>
-    <row r="118" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="107"/>
       <c r="B118" s="6" t="s">
         <v>177</v>
@@ -32306,7 +32316,7 @@
       <c r="BY118" s="15"/>
       <c r="BZ118" s="15"/>
     </row>
-    <row r="119" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="107" t="s">
         <v>213</v>
       </c>
@@ -32398,7 +32408,7 @@
       <c r="BY119" s="15"/>
       <c r="BZ119" s="15"/>
     </row>
-    <row r="120" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="107"/>
       <c r="B120" s="6" t="s">
         <v>179</v>
@@ -32488,7 +32498,7 @@
       <c r="BY120" s="15"/>
       <c r="BZ120" s="15"/>
     </row>
-    <row r="121" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="107"/>
       <c r="B121" s="6" t="s">
         <v>180</v>
@@ -32578,7 +32588,7 @@
       <c r="BY121" s="15"/>
       <c r="BZ121" s="15"/>
     </row>
-    <row r="122" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="107"/>
       <c r="B122" s="6" t="s">
         <v>181</v>
@@ -32668,7 +32678,7 @@
       <c r="BY122" s="15"/>
       <c r="BZ122" s="15"/>
     </row>
-    <row r="123" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="107" t="s">
         <v>214</v>
       </c>
@@ -32760,7 +32770,7 @@
       <c r="BY123" s="15"/>
       <c r="BZ123" s="15"/>
     </row>
-    <row r="124" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="107"/>
       <c r="B124" s="6" t="s">
         <v>183</v>
@@ -32850,7 +32860,7 @@
       <c r="BY124" s="15"/>
       <c r="BZ124" s="15"/>
     </row>
-    <row r="125" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="107"/>
       <c r="B125" s="6" t="s">
         <v>184</v>
@@ -32940,7 +32950,7 @@
       <c r="BY125" s="15"/>
       <c r="BZ125" s="15"/>
     </row>
-    <row r="126" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="107"/>
       <c r="B126" s="6" t="s">
         <v>185</v>
@@ -33030,7 +33040,7 @@
       <c r="BY126" s="15"/>
       <c r="BZ126" s="15"/>
     </row>
-    <row r="127" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="107" t="s">
         <v>215</v>
       </c>
@@ -33122,7 +33132,7 @@
       <c r="BY127" s="15"/>
       <c r="BZ127" s="15"/>
     </row>
-    <row r="128" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="107"/>
       <c r="B128" s="6" t="s">
         <v>187</v>
@@ -33212,7 +33222,7 @@
       <c r="BY128" s="15"/>
       <c r="BZ128" s="15"/>
     </row>
-    <row r="129" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="107"/>
       <c r="B129" s="6" t="s">
         <v>188</v>
@@ -33302,7 +33312,7 @@
       <c r="BY129" s="15"/>
       <c r="BZ129" s="15"/>
     </row>
-    <row r="130" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="107"/>
       <c r="B130" s="6" t="s">
         <v>189</v>
@@ -33392,7 +33402,7 @@
       <c r="BY130" s="15"/>
       <c r="BZ130" s="15"/>
     </row>
-    <row r="131" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="107" t="s">
         <v>141</v>
       </c>
@@ -33484,7 +33494,7 @@
       <c r="BY131" s="15"/>
       <c r="BZ131" s="15"/>
     </row>
-    <row r="132" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="107"/>
       <c r="B132" s="6" t="s">
         <v>191</v>
@@ -33574,7 +33584,7 @@
       <c r="BY132" s="15"/>
       <c r="BZ132" s="15"/>
     </row>
-    <row r="133" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="107"/>
       <c r="B133" s="6" t="s">
         <v>192</v>
@@ -33664,7 +33674,7 @@
       <c r="BY133" s="15"/>
       <c r="BZ133" s="15"/>
     </row>
-    <row r="134" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="107"/>
       <c r="B134" s="6" t="s">
         <v>193</v>
@@ -33754,7 +33764,7 @@
       <c r="BY134" s="15"/>
       <c r="BZ134" s="15"/>
     </row>
-    <row r="135" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="107" t="s">
         <v>142</v>
       </c>
@@ -33846,7 +33856,7 @@
       <c r="BY135" s="15"/>
       <c r="BZ135" s="15"/>
     </row>
-    <row r="136" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="107"/>
       <c r="B136" s="6" t="s">
         <v>195</v>
@@ -33936,7 +33946,7 @@
       <c r="BY136" s="15"/>
       <c r="BZ136" s="15"/>
     </row>
-    <row r="137" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="107"/>
       <c r="B137" s="6" t="s">
         <v>196</v>
@@ -34026,7 +34036,7 @@
       <c r="BY137" s="15"/>
       <c r="BZ137" s="15"/>
     </row>
-    <row r="138" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="107"/>
       <c r="B138" s="6" t="s">
         <v>197</v>
@@ -34116,7 +34126,7 @@
       <c r="BY138" s="15"/>
       <c r="BZ138" s="15"/>
     </row>
-    <row r="139" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="107" t="s">
         <v>143</v>
       </c>
@@ -34208,7 +34218,7 @@
       <c r="BY139" s="15"/>
       <c r="BZ139" s="15"/>
     </row>
-    <row r="140" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="107"/>
       <c r="B140" s="6" t="s">
         <v>199</v>
@@ -34298,7 +34308,7 @@
       <c r="BY140" s="15"/>
       <c r="BZ140" s="15"/>
     </row>
-    <row r="141" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="107"/>
       <c r="B141" s="6" t="s">
         <v>200</v>
@@ -34388,7 +34398,7 @@
       <c r="BY141" s="15"/>
       <c r="BZ141" s="15"/>
     </row>
-    <row r="142" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="107"/>
       <c r="B142" s="6" t="s">
         <v>201</v>
@@ -34478,7 +34488,7 @@
       <c r="BY142" s="15"/>
       <c r="BZ142" s="15"/>
     </row>
-    <row r="143" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="107" t="s">
         <v>144</v>
       </c>
@@ -34570,7 +34580,7 @@
       <c r="BY143" s="15"/>
       <c r="BZ143" s="15"/>
     </row>
-    <row r="144" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="107"/>
       <c r="B144" s="6" t="s">
         <v>203</v>
@@ -34660,7 +34670,7 @@
       <c r="BY144" s="15"/>
       <c r="BZ144" s="15"/>
     </row>
-    <row r="145" spans="1:78" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="107"/>
       <c r="B145" s="6" t="s">
         <v>204</v>
@@ -34750,7 +34760,7 @@
       <c r="BY145" s="15"/>
       <c r="BZ145" s="15"/>
     </row>
-    <row r="146" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="107"/>
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
@@ -34830,7 +34840,7 @@
       <c r="BY146" s="15"/>
       <c r="BZ146" s="15"/>
     </row>
-    <row r="147" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A147" s="52"/>
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
@@ -34910,7 +34920,7 @@
       <c r="BY147" s="15"/>
       <c r="BZ147" s="15"/>
     </row>
-    <row r="148" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A148" s="52"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
@@ -34990,7 +35000,7 @@
       <c r="BY148" s="15"/>
       <c r="BZ148" s="15"/>
     </row>
-    <row r="149" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A149" s="52"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -35070,7 +35080,7 @@
       <c r="BY149" s="15"/>
       <c r="BZ149" s="15"/>
     </row>
-    <row r="150" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A150" s="52"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
@@ -35150,7 +35160,7 @@
       <c r="BY150" s="15"/>
       <c r="BZ150" s="15"/>
     </row>
-    <row r="151" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A151" s="52"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
@@ -35230,7 +35240,7 @@
       <c r="BY151" s="15"/>
       <c r="BZ151" s="15"/>
     </row>
-    <row r="152" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A152" s="52"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
@@ -35310,7 +35320,7 @@
       <c r="BY152" s="15"/>
       <c r="BZ152" s="15"/>
     </row>
-    <row r="153" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A153" s="52"/>
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
@@ -35390,7 +35400,7 @@
       <c r="BY153" s="15"/>
       <c r="BZ153" s="15"/>
     </row>
-    <row r="154" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A154" s="52"/>
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
@@ -35470,7 +35480,7 @@
       <c r="BY154" s="15"/>
       <c r="BZ154" s="15"/>
     </row>
-    <row r="155" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A155" s="52"/>
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
@@ -35550,7 +35560,7 @@
       <c r="BY155" s="15"/>
       <c r="BZ155" s="15"/>
     </row>
-    <row r="156" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A156" s="52"/>
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
@@ -35630,7 +35640,7 @@
       <c r="BY156" s="15"/>
       <c r="BZ156" s="15"/>
     </row>
-    <row r="157" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A157" s="52"/>
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
@@ -35710,7 +35720,7 @@
       <c r="BY157" s="15"/>
       <c r="BZ157" s="15"/>
     </row>
-    <row r="158" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A158" s="52"/>
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
@@ -35790,7 +35800,7 @@
       <c r="BY158" s="15"/>
       <c r="BZ158" s="15"/>
     </row>
-    <row r="159" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A159" s="52"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
@@ -35870,7 +35880,7 @@
       <c r="BY159" s="15"/>
       <c r="BZ159" s="15"/>
     </row>
-    <row r="160" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A160" s="52"/>
       <c r="B160" s="15"/>
       <c r="C160" s="15"/>
@@ -35950,7 +35960,7 @@
       <c r="BY160" s="15"/>
       <c r="BZ160" s="15"/>
     </row>
-    <row r="161" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A161" s="52"/>
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
@@ -36030,7 +36040,7 @@
       <c r="BY161" s="15"/>
       <c r="BZ161" s="15"/>
     </row>
-    <row r="162" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A162" s="52"/>
       <c r="B162" s="15"/>
       <c r="C162" s="15"/>
@@ -36110,7 +36120,7 @@
       <c r="BY162" s="15"/>
       <c r="BZ162" s="15"/>
     </row>
-    <row r="163" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A163" s="52"/>
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
@@ -36190,7 +36200,7 @@
       <c r="BY163" s="15"/>
       <c r="BZ163" s="15"/>
     </row>
-    <row r="164" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A164" s="52"/>
       <c r="B164" s="15"/>
       <c r="C164" s="15"/>
@@ -36270,7 +36280,7 @@
       <c r="BY164" s="15"/>
       <c r="BZ164" s="15"/>
     </row>
-    <row r="165" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A165" s="52"/>
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
@@ -36350,7 +36360,7 @@
       <c r="BY165" s="15"/>
       <c r="BZ165" s="15"/>
     </row>
-    <row r="166" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A166" s="52"/>
       <c r="B166" s="15"/>
       <c r="C166" s="15"/>
@@ -36430,7 +36440,7 @@
       <c r="BY166" s="15"/>
       <c r="BZ166" s="15"/>
     </row>
-    <row r="167" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A167" s="52"/>
       <c r="B167" s="15"/>
       <c r="C167" s="15"/>
@@ -36510,7 +36520,7 @@
       <c r="BY167" s="15"/>
       <c r="BZ167" s="15"/>
     </row>
-    <row r="168" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A168" s="52"/>
       <c r="B168" s="15"/>
       <c r="C168" s="15"/>
@@ -36590,7 +36600,7 @@
       <c r="BY168" s="15"/>
       <c r="BZ168" s="15"/>
     </row>
-    <row r="169" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A169" s="52"/>
       <c r="B169" s="15"/>
       <c r="C169" s="15"/>
@@ -36670,7 +36680,7 @@
       <c r="BY169" s="15"/>
       <c r="BZ169" s="15"/>
     </row>
-    <row r="170" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A170" s="52"/>
       <c r="B170" s="15"/>
       <c r="C170" s="15"/>
@@ -36750,7 +36760,7 @@
       <c r="BY170" s="15"/>
       <c r="BZ170" s="15"/>
     </row>
-    <row r="171" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A171" s="52"/>
       <c r="B171" s="15"/>
       <c r="C171" s="15"/>
@@ -36830,7 +36840,7 @@
       <c r="BY171" s="15"/>
       <c r="BZ171" s="15"/>
     </row>
-    <row r="172" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A172" s="52"/>
       <c r="B172" s="15"/>
       <c r="C172" s="15"/>
@@ -36910,7 +36920,7 @@
       <c r="BY172" s="15"/>
       <c r="BZ172" s="15"/>
     </row>
-    <row r="173" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A173" s="52"/>
       <c r="B173" s="15"/>
       <c r="C173" s="15"/>
@@ -36990,7 +37000,7 @@
       <c r="BY173" s="15"/>
       <c r="BZ173" s="15"/>
     </row>
-    <row r="174" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A174" s="52"/>
       <c r="B174" s="15"/>
       <c r="C174" s="15"/>
@@ -37070,7 +37080,7 @@
       <c r="BY174" s="15"/>
       <c r="BZ174" s="15"/>
     </row>
-    <row r="175" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A175" s="52"/>
       <c r="B175" s="15"/>
       <c r="C175" s="15"/>
@@ -37150,7 +37160,7 @@
       <c r="BY175" s="15"/>
       <c r="BZ175" s="15"/>
     </row>
-    <row r="176" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A176" s="52"/>
       <c r="B176" s="15"/>
       <c r="C176" s="15"/>
@@ -37230,7 +37240,7 @@
       <c r="BY176" s="15"/>
       <c r="BZ176" s="15"/>
     </row>
-    <row r="177" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A177" s="52"/>
       <c r="B177" s="15"/>
       <c r="C177" s="15"/>
@@ -37310,7 +37320,7 @@
       <c r="BY177" s="15"/>
       <c r="BZ177" s="15"/>
     </row>
-    <row r="178" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A178" s="52"/>
       <c r="B178" s="15"/>
       <c r="C178" s="15"/>
@@ -37390,7 +37400,7 @@
       <c r="BY178" s="15"/>
       <c r="BZ178" s="15"/>
     </row>
-    <row r="179" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A179" s="52"/>
       <c r="B179" s="15"/>
       <c r="C179" s="15"/>
@@ -37470,7 +37480,7 @@
       <c r="BY179" s="15"/>
       <c r="BZ179" s="15"/>
     </row>
-    <row r="180" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A180" s="52"/>
       <c r="B180" s="15"/>
       <c r="C180" s="15"/>
@@ -37550,7 +37560,7 @@
       <c r="BY180" s="15"/>
       <c r="BZ180" s="15"/>
     </row>
-    <row r="181" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A181" s="52"/>
       <c r="B181" s="15"/>
       <c r="C181" s="15"/>
@@ -37630,7 +37640,7 @@
       <c r="BY181" s="15"/>
       <c r="BZ181" s="15"/>
     </row>
-    <row r="182" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A182" s="52"/>
       <c r="B182" s="15"/>
       <c r="C182" s="15"/>
@@ -37710,7 +37720,7 @@
       <c r="BY182" s="15"/>
       <c r="BZ182" s="15"/>
     </row>
-    <row r="183" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A183" s="52"/>
       <c r="B183" s="15"/>
       <c r="C183" s="15"/>
@@ -37790,7 +37800,7 @@
       <c r="BY183" s="15"/>
       <c r="BZ183" s="15"/>
     </row>
-    <row r="184" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A184" s="52"/>
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
@@ -37870,7 +37880,7 @@
       <c r="BY184" s="15"/>
       <c r="BZ184" s="15"/>
     </row>
-    <row r="185" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A185" s="52"/>
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
@@ -37881,7 +37891,7 @@
       <c r="H185" s="15"/>
       <c r="I185" s="13"/>
     </row>
-    <row r="186" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A186" s="52"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -37892,7 +37902,7 @@
       <c r="H186" s="15"/>
       <c r="I186" s="13"/>
     </row>
-    <row r="187" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A187" s="52"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
@@ -37903,7 +37913,7 @@
       <c r="H187" s="15"/>
       <c r="I187" s="13"/>
     </row>
-    <row r="188" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A188" s="52"/>
       <c r="B188" s="15"/>
       <c r="C188" s="15"/>
@@ -37914,47 +37924,47 @@
       <c r="H188" s="15"/>
       <c r="I188" s="13"/>
     </row>
-    <row r="189" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A189" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A79:A82"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A67:A70"/>
     <mergeCell ref="A71:A74"/>
     <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="F4">
@@ -42191,29 +42201,29 @@
   <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="70"/>
-    <col min="2" max="2" width="18.1796875" style="70" customWidth="1"/>
-    <col min="3" max="3" width="46.26953125" style="69" customWidth="1"/>
-    <col min="4" max="4" width="49.1796875" style="69" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" style="44" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="36.453125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="32.1796875" style="69" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" style="70" customWidth="1"/>
-    <col min="10" max="10" width="26.1796875" style="76" customWidth="1"/>
-    <col min="11" max="11" width="16.26953125" style="44" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="44"/>
+    <col min="1" max="1" width="9.140625" style="70"/>
+    <col min="2" max="2" width="18.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" style="69" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" style="69" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="70" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="76" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="44" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>318</v>
       </c>
@@ -42248,7 +42258,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>319</v>
       </c>
@@ -42263,7 +42273,7 @@
       <c r="H2" s="75"/>
       <c r="I2" s="74"/>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
         <v>321</v>
       </c>
@@ -42289,7 +42299,7 @@
       <c r="I3" s="90"/>
       <c r="J3" s="87"/>
     </row>
-    <row r="4" spans="1:11" s="76" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
         <v>322</v>
       </c>
@@ -42316,7 +42326,7 @@
       <c r="I4" s="90"/>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>323</v>
       </c>
@@ -42343,7 +42353,7 @@
       <c r="I5" s="90"/>
       <c r="J5" s="87"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>327</v>
       </c>
@@ -42369,7 +42379,7 @@
       <c r="I6" s="90"/>
       <c r="J6" s="87"/>
     </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>329</v>
       </c>
@@ -42395,7 +42405,7 @@
       <c r="I7" s="90"/>
       <c r="J7" s="87"/>
     </row>
-    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>331</v>
       </c>
@@ -42421,7 +42431,7 @@
       <c r="I8" s="90"/>
       <c r="J8" s="87"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>332</v>
       </c>
@@ -42447,7 +42457,7 @@
       <c r="I9" s="90"/>
       <c r="J9" s="87"/>
     </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>333</v>
       </c>
@@ -42473,7 +42483,7 @@
       <c r="I10" s="90"/>
       <c r="J10" s="87"/>
     </row>
-    <row r="11" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>334</v>
       </c>
@@ -42500,7 +42510,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="80"/>
     </row>
-    <row r="12" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="91"/>
       <c r="B12" s="92"/>
       <c r="C12" s="93"/>
@@ -42510,7 +42520,7 @@
       <c r="I12" s="97"/>
       <c r="J12" s="98"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>335</v>
       </c>
@@ -42530,7 +42540,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="76" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" s="76" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>338</v>
       </c>
@@ -42559,7 +42569,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>340</v>
       </c>
@@ -42585,7 +42595,7 @@
       <c r="I15" s="90"/>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>341</v>
       </c>
@@ -42612,7 +42622,7 @@
       <c r="J16" s="87"/>
       <c r="K16" s="80"/>
     </row>
-    <row r="17" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>343</v>
       </c>
@@ -42639,7 +42649,7 @@
       <c r="I17" s="90"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>345</v>
       </c>
@@ -42665,7 +42675,7 @@
       <c r="I18" s="90"/>
       <c r="J18" s="87"/>
     </row>
-    <row r="19" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="91"/>
       <c r="B19" s="99"/>
       <c r="C19" s="94"/>
@@ -42677,7 +42687,7 @@
       <c r="I19" s="97"/>
       <c r="J19" s="98"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>346</v>
       </c>
@@ -42695,7 +42705,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>347</v>
       </c>
@@ -42721,7 +42731,7 @@
       <c r="I21" s="90"/>
       <c r="J21" s="87"/>
     </row>
-    <row r="22" spans="1:10" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
         <v>348</v>
       </c>
@@ -42748,7 +42758,7 @@
       <c r="I22" s="90"/>
       <c r="J22" s="87"/>
     </row>
-    <row r="23" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
         <v>349</v>
       </c>
@@ -42775,7 +42785,7 @@
       <c r="I23" s="90"/>
       <c r="J23" s="87"/>
     </row>
-    <row r="24" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="91"/>
       <c r="C24" s="94"/>
       <c r="D24" s="94"/>
@@ -42784,7 +42794,7 @@
       <c r="I24" s="97"/>
       <c r="J24" s="98"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
         <v>350</v>
       </c>
@@ -42799,7 +42809,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
         <v>352</v>
       </c>
@@ -42825,7 +42835,7 @@
       <c r="I26" s="90"/>
       <c r="J26" s="87"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
         <v>354</v>
       </c>
@@ -42851,7 +42861,7 @@
       <c r="I27" s="90"/>
       <c r="J27" s="87"/>
     </row>
-    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="70" t="s">
         <v>356</v>
       </c>
@@ -42877,7 +42887,7 @@
       <c r="I28" s="90"/>
       <c r="J28" s="87"/>
     </row>
-    <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="70" t="s">
         <v>358</v>
       </c>
@@ -42903,7 +42913,7 @@
       <c r="I29" s="90"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="70" t="s">
         <v>360</v>
       </c>
@@ -42929,7 +42939,7 @@
       <c r="I30" s="90"/>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="70" t="s">
         <v>362</v>
       </c>
@@ -42955,7 +42965,7 @@
       <c r="I31" s="90"/>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="70" t="s">
         <v>364</v>
       </c>
@@ -42981,7 +42991,7 @@
       <c r="I32" s="90"/>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="70" t="s">
         <v>365</v>
       </c>
@@ -43007,7 +43017,7 @@
       <c r="I33" s="90"/>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="70" t="s">
         <v>366</v>
       </c>
@@ -43033,7 +43043,7 @@
       <c r="I34" s="90"/>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="74" t="s">
         <v>367</v>
       </c>
@@ -43060,7 +43070,7 @@
       <c r="I35" s="90"/>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="1:11" s="76" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="74" t="s">
         <v>466</v>
       </c>
@@ -43087,7 +43097,7 @@
       <c r="I36" s="90"/>
       <c r="J36" s="87"/>
     </row>
-    <row r="37" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="91"/>
       <c r="C37" s="94"/>
       <c r="D37" s="94"/>
@@ -43096,7 +43106,7 @@
       <c r="I37" s="97"/>
       <c r="J37" s="98"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
         <v>369</v>
       </c>
@@ -43111,7 +43121,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="72" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" s="72" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="71" t="s">
         <v>371</v>
       </c>
@@ -43139,7 +43149,7 @@
       <c r="J39" s="87"/>
       <c r="K39" s="73"/>
     </row>
-    <row r="40" spans="1:11" s="76" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="74" t="s">
         <v>372</v>
       </c>
@@ -43162,7 +43172,7 @@
       <c r="I40" s="90"/>
       <c r="J40" s="87"/>
     </row>
-    <row r="41" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="74" t="s">
         <v>373</v>
       </c>
@@ -43189,7 +43199,7 @@
       <c r="I41" s="90"/>
       <c r="J41" s="87"/>
     </row>
-    <row r="42" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
         <v>375</v>
       </c>
@@ -43215,7 +43225,7 @@
       <c r="I42" s="90"/>
       <c r="J42" s="87"/>
     </row>
-    <row r="43" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="91"/>
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
@@ -43224,7 +43234,7 @@
       <c r="I43" s="97"/>
       <c r="J43" s="98"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="70" t="s">
         <v>376</v>
       </c>
@@ -43239,7 +43249,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="70" t="s">
         <v>378</v>
       </c>
@@ -43265,7 +43275,7 @@
       <c r="I45" s="90"/>
       <c r="J45" s="87"/>
     </row>
-    <row r="46" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="74" t="s">
         <v>379</v>
       </c>
@@ -43292,7 +43302,7 @@
       <c r="I46" s="90"/>
       <c r="J46" s="87"/>
     </row>
-    <row r="47" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="74" t="s">
         <v>380</v>
       </c>
@@ -43319,7 +43329,7 @@
       <c r="I47" s="90"/>
       <c r="J47" s="87"/>
     </row>
-    <row r="48" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="91"/>
       <c r="C48" s="94"/>
       <c r="D48" s="94"/>
@@ -43328,7 +43338,7 @@
       <c r="I48" s="97"/>
       <c r="J48" s="98"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="70" t="s">
         <v>381</v>
       </c>
@@ -43343,7 +43353,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="70" t="s">
         <v>383</v>
       </c>
@@ -43369,7 +43379,7 @@
       <c r="I50" s="90"/>
       <c r="J50" s="87"/>
     </row>
-    <row r="51" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="74" t="s">
         <v>384</v>
       </c>
@@ -43396,7 +43406,7 @@
       <c r="I51" s="90"/>
       <c r="J51" s="87"/>
     </row>
-    <row r="52" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="74" t="s">
         <v>385</v>
       </c>
@@ -43423,7 +43433,7 @@
       <c r="I52" s="90"/>
       <c r="J52" s="87"/>
     </row>
-    <row r="53" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="74" t="s">
         <v>387</v>
       </c>
@@ -43450,7 +43460,7 @@
       <c r="I53" s="90"/>
       <c r="J53" s="87"/>
     </row>
-    <row r="54" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="74" t="s">
         <v>389</v>
       </c>
@@ -43477,7 +43487,7 @@
       <c r="I54" s="90"/>
       <c r="J54" s="87"/>
     </row>
-    <row r="55" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="74" t="s">
         <v>390</v>
       </c>
@@ -43504,7 +43514,7 @@
       <c r="I55" s="90"/>
       <c r="J55" s="87"/>
     </row>
-    <row r="56" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="91"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
@@ -43512,7 +43522,7 @@
       <c r="I56" s="97"/>
       <c r="J56" s="98"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="70" t="s">
         <v>392</v>
       </c>
@@ -43527,7 +43537,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="76" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" s="76" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="74" t="s">
         <v>394</v>
       </c>
@@ -43554,7 +43564,7 @@
       <c r="I58" s="90"/>
       <c r="J58" s="87"/>
     </row>
-    <row r="59" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="74" t="s">
         <v>395</v>
       </c>
@@ -43581,7 +43591,7 @@
       <c r="I59" s="90"/>
       <c r="J59" s="87"/>
     </row>
-    <row r="60" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="74" t="s">
         <v>396</v>
       </c>
@@ -43608,7 +43618,7 @@
       <c r="I60" s="90"/>
       <c r="J60" s="87"/>
     </row>
-    <row r="61" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="91"/>
       <c r="C61" s="94"/>
       <c r="D61" s="94"/>
@@ -43617,7 +43627,7 @@
       <c r="I61" s="94"/>
       <c r="J61" s="98"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="70" t="s">
         <v>398</v>
       </c>
@@ -43632,7 +43642,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="74" t="s">
         <v>400</v>
       </c>
@@ -43660,7 +43670,7 @@
       <c r="J63" s="87"/>
       <c r="K63" s="100"/>
     </row>
-    <row r="64" spans="1:11" s="76" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="74" t="s">
         <v>402</v>
       </c>
@@ -43687,7 +43697,7 @@
       <c r="I64" s="90"/>
       <c r="J64" s="87"/>
     </row>
-    <row r="65" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="74" t="s">
         <v>404</v>
       </c>
@@ -43714,7 +43724,7 @@
       <c r="I65" s="90"/>
       <c r="J65" s="87"/>
     </row>
-    <row r="66" spans="1:11" s="76" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="74" t="s">
         <v>405</v>
       </c>
@@ -43741,7 +43751,7 @@
       <c r="I66" s="90"/>
       <c r="J66" s="87"/>
     </row>
-    <row r="67" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="74" t="s">
         <v>406</v>
       </c>
@@ -43768,7 +43778,7 @@
       <c r="I67" s="90"/>
       <c r="J67" s="87"/>
     </row>
-    <row r="68" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="70" t="s">
         <v>408</v>
       </c>
@@ -43794,7 +43804,7 @@
       <c r="I68" s="90"/>
       <c r="J68" s="87"/>
     </row>
-    <row r="69" spans="1:11" s="76" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="74" t="s">
         <v>410</v>
       </c>
@@ -43821,7 +43831,7 @@
       <c r="I69" s="90"/>
       <c r="J69" s="87"/>
     </row>
-    <row r="70" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="74" t="s">
         <v>412</v>
       </c>
@@ -43849,7 +43859,7 @@
       <c r="J70" s="87"/>
       <c r="K70" s="100"/>
     </row>
-    <row r="71" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="70" t="s">
         <v>413</v>
       </c>
@@ -43875,7 +43885,7 @@
       <c r="I71" s="90"/>
       <c r="J71" s="87"/>
     </row>
-    <row r="72" spans="1:11" s="76" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="76" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="74" t="s">
         <v>415</v>
       </c>
@@ -43902,7 +43912,7 @@
       <c r="I72" s="90"/>
       <c r="J72" s="87"/>
     </row>
-    <row r="73" spans="1:11" s="72" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="71" t="s">
         <v>416</v>
       </c>
@@ -43929,7 +43939,7 @@
       <c r="I73" s="90"/>
       <c r="J73" s="87"/>
     </row>
-    <row r="74" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="70" t="s">
         <v>417</v>
       </c>
@@ -43955,7 +43965,7 @@
       <c r="I74" s="90"/>
       <c r="J74" s="87"/>
     </row>
-    <row r="75" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="91"/>
       <c r="C75" s="94"/>
       <c r="D75" s="94"/>
@@ -43964,7 +43974,7 @@
       <c r="I75" s="97"/>
       <c r="J75" s="98"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="70" t="s">
         <v>418</v>
       </c>
@@ -43979,7 +43989,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="76" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="74" t="s">
         <v>420</v>
       </c>
@@ -44006,7 +44016,7 @@
       <c r="I77" s="90"/>
       <c r="J77" s="87"/>
     </row>
-    <row r="78" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="70" t="s">
         <v>421</v>
       </c>
@@ -44032,7 +44042,7 @@
       <c r="I78" s="90"/>
       <c r="J78" s="87"/>
     </row>
-    <row r="79" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="70" t="s">
         <v>423</v>
       </c>
@@ -44058,7 +44068,7 @@
       <c r="I79" s="90"/>
       <c r="J79" s="87"/>
     </row>
-    <row r="80" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="91"/>
       <c r="C80" s="94"/>
       <c r="D80" s="94"/>
@@ -44066,7 +44076,7 @@
       <c r="I80" s="97"/>
       <c r="J80" s="98"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="70" t="s">
         <v>424</v>
       </c>
@@ -44081,7 +44091,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="70" t="s">
         <v>426</v>
       </c>
@@ -44107,7 +44117,7 @@
       <c r="I82" s="90"/>
       <c r="J82" s="87"/>
     </row>
-    <row r="83" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="70" t="s">
         <v>428</v>
       </c>
@@ -44133,7 +44143,7 @@
       <c r="I83" s="90"/>
       <c r="J83" s="87"/>
     </row>
-    <row r="84" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="91"/>
       <c r="B84" s="91"/>
       <c r="C84" s="94"/>
@@ -44142,7 +44152,7 @@
       <c r="I84" s="97"/>
       <c r="J84" s="98"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B85" s="116" t="s">
         <v>454</v>
       </c>
@@ -44154,7 +44164,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B86" s="18"/>
       <c r="C86" s="79" t="s">
         <v>337</v>
@@ -44174,7 +44184,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I87" s="86" t="s">
         <v>445</v>
       </c>
@@ -44182,7 +44192,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I88" s="86" t="s">
         <v>445</v>
       </c>
@@ -44190,7 +44200,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I89" s="86" t="s">
         <v>445</v>
       </c>
@@ -44198,7 +44208,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I90" s="86" t="s">
         <v>445</v>
       </c>
@@ -44206,7 +44216,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I91" s="86" t="s">
         <v>445</v>
       </c>
@@ -44214,7 +44224,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I92" s="86" t="s">
         <v>445</v>
       </c>
@@ -44222,7 +44232,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I93" s="86" t="s">
         <v>445</v>
       </c>
@@ -44230,7 +44240,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I94" s="86" t="s">
         <v>445</v>
       </c>
@@ -44238,7 +44248,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I95" s="86" t="s">
         <v>445</v>
       </c>
@@ -44246,7 +44256,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I96" s="86" t="s">
         <v>445</v>
       </c>
@@ -44254,7 +44264,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I97" s="86" t="s">
         <v>445</v>
       </c>
@@ -44262,7 +44272,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I98" s="86" t="s">
         <v>445</v>
       </c>
@@ -44270,7 +44280,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I99" s="86" t="s">
         <v>445</v>
       </c>
@@ -44278,7 +44288,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I100" s="86" t="s">
         <v>445</v>
       </c>
@@ -44286,7 +44296,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I101" s="86" t="s">
         <v>445</v>
       </c>
@@ -44294,7 +44304,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I102" s="86" t="s">
         <v>445</v>
       </c>
@@ -44302,7 +44312,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I103" s="86" t="s">
         <v>445</v>
       </c>
@@ -44310,7 +44320,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I104" s="86" t="s">
         <v>445</v>
       </c>
@@ -44318,7 +44328,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I105" s="86" t="s">
         <v>445</v>
       </c>
@@ -44326,7 +44336,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I106" s="86" t="s">
         <v>445</v>
       </c>
@@ -44334,7 +44344,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I107" s="86" t="s">
         <v>445</v>
       </c>
@@ -44342,7 +44352,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I108" s="86" t="s">
         <v>445</v>
       </c>
@@ -44350,7 +44360,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I109" s="86" t="s">
         <v>445</v>
       </c>
@@ -44358,7 +44368,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I110" s="86" t="s">
         <v>445</v>
       </c>
@@ -44366,7 +44376,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I111" s="86" t="s">
         <v>445</v>
       </c>
@@ -44374,7 +44384,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I112" s="86" t="s">
         <v>445</v>
       </c>
@@ -44382,7 +44392,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I113" s="86" t="s">
         <v>445</v>
       </c>
@@ -44390,7 +44400,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I114" s="86" t="s">
         <v>445</v>
       </c>
@@ -44398,7 +44408,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I115" s="86" t="s">
         <v>445</v>
       </c>
@@ -44406,7 +44416,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I116" s="86" t="s">
         <v>445</v>
       </c>
@@ -44414,7 +44424,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I117" s="86" t="s">
         <v>445</v>
       </c>
@@ -44422,7 +44432,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I118" s="86" t="s">
         <v>445</v>
       </c>
@@ -44430,32 +44440,32 @@
         <v>445</v>
       </c>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J119" s="87" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J120" s="87" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J121" s="87" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J122" s="87" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J123" s="87" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J124" s="87" t="s">
         <v>445</v>
       </c>
@@ -44949,18 +44959,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="67.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="30" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>112</v>
       </c>
@@ -44971,7 +44981,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>113</v>
       </c>
@@ -44982,7 +44992,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>114</v>
       </c>
@@ -44993,7 +45003,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>115</v>
       </c>
@@ -45004,7 +45014,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>116</v>
       </c>
@@ -45013,7 +45023,7 @@
       </c>
       <c r="C6" s="28"/>
     </row>
-    <row r="7" spans="1:3" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>117</v>
       </c>
@@ -45024,7 +45034,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>118</v>
       </c>
@@ -45035,7 +45045,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>119</v>
       </c>
@@ -45046,7 +45056,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>120</v>
       </c>
@@ -45057,7 +45067,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>10</v>
       </c>
@@ -45084,18 +45094,18 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="84" style="5" customWidth="1"/>
-    <col min="2" max="2" width="70.1796875" style="5" customWidth="1"/>
-    <col min="3" max="6" width="9.1796875" style="5"/>
-    <col min="7" max="7" width="9.1796875" style="25"/>
-    <col min="8" max="9" width="9.1796875" style="5"/>
-    <col min="10" max="10" width="9.1796875" style="25"/>
-    <col min="11" max="16384" width="9.1796875" style="5"/>
+    <col min="2" max="2" width="70.140625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="9.140625" style="25"/>
+    <col min="8" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="9.140625" style="25"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>104</v>
       </c>
@@ -45103,74 +45113,74 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
   </sheetData>
@@ -45187,13 +45197,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>431</v>
       </c>
@@ -45204,7 +45214,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>90</v>
       </c>
@@ -45218,7 +45228,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>91</v>
       </c>
@@ -45232,7 +45242,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>88</v>
       </c>
@@ -45246,17 +45256,17 @@
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>433</v>
       </c>
@@ -45273,6 +45283,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006A56B998D5A0C740BA74A089E1299673" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="8b08b6c9a909167793ec28e6bcdfcea5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ab2f9ab6-927b-436c-bbcf-10f11a20bf72" xmlns:ns4="d3b3fe64-6279-4487-bae7-5a5e7ea037f8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5563ee922a17ab5eb4ddfb5f470ccbc" ns3:_="" ns4:_="">
     <xsd:import namespace="ab2f9ab6-927b-436c-bbcf-10f11a20bf72"/>
@@ -45489,15 +45508,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27C61CDB-0D2F-40B2-80EB-B5C2BB1999ED}">
   <ds:schemaRefs>
@@ -45516,6 +45526,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8E72E-01C3-4A90-A13D-D95FFDEBE7BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03977BB-7CFA-4EE6-BAD6-AA928FBAA0AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45532,12 +45550,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8E72E-01C3-4A90-A13D-D95FFDEBE7BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>